--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,59 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>400011172559639</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10768</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>13,83</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>17,15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,59 +490,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>400011172559639</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10768</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>03/10/2025</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>13,83</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>17,15</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,59 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>400011213160102</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9036</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>64,52</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15,48</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011213160102</t>
+          <t>400011186892779</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,12 +513,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9036</t>
+          <t>8970</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -529,17 +529,17 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>64,52</t>
+          <t>48,39</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>15,48</t>
+          <t>11,61</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>80,00</t>
+          <t>60,00</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011186892779</t>
+          <t>400011172559639</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,17 +508,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8Μ0ΤΔΑ</t>
+          <t>12Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8970</t>
+          <t>10768</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>03/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -529,17 +529,17 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>48,39</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11,61</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>60,00</t>
+          <t>17,15</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,51 @@
           <t>Σύνολο</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>issueDate</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>AFM_issuer</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>series</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>totalNetValue</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>totalVatAmount</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>totalValue</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -542,6 +587,77 @@
           <t>17,15</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400011184530011</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>45,54</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10,93</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>56,47</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,56 +489,11 @@
           <t>Σύνολο</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>issueDate</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>AFM_issuer</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>series</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>totalNetValue</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>totalVatAmount</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>totalValue</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011172559639</t>
+          <t>400011184530011</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -553,17 +508,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12Μ0ΤΔΑ</t>
+          <t>5Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10768</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>03/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -574,90 +529,19 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13,83</t>
+          <t>45,54</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>10,93</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>17,15</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>400011184530011</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>04/10/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>45,54</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>10,93</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>56,47</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,59 +490,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>400011184530011</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>04/10/2025</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>45,54</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>10,93</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>56,47</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,55 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>400011199848735</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60072</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>74,36</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>17,85</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>92,21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,55 +490,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>400011199848735</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>800916954</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>60072</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>06/10/2025</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>74,36</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>17,85</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>92,21</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>400011219241352</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400011219241352</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -493,86 +493,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011184830173</t>
+          <t>400011219241353</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>800916954</t>
+          <t>094386010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60038</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>18,30</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>22,69</t>
+          <t>9,4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011219241352</t>
+          <t>400011184830173</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>094386010</t>
+          <t>800916954</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60038</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9,40</t>
+          <t>18,30</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>9,40</t>
+          <t>22,69</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,92 +490,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>400011219241353</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>094386010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>25/09/2025</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>400011184830173</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>800916954</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>60038</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>04/10/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>18,30</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>22,69</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,88 +493,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011186892779</t>
+          <t>400011219241352</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8970</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>48,39</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>11,61</t>
-        </is>
-      </c>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>60,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>400011219241352</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>094386010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>25/09/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
         <is>
           <t>9,4</t>
         </is>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,165 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400011219241351</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9063</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>132,88</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>31,89</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>164,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>400011186892779</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8970</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>48,39</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>11,61</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>400011213160102</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9036</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>64,52</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>15,48</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,200 +493,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011219241352</t>
+          <t>400011213160102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>094386010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>9036</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>07/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9,4</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>64,52</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15,48</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>80,00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011219241351</t>
+          <t>400011219241352</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>094439854</t>
+          <t>115333562</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9063</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>132,88</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>31,89</t>
-        </is>
-      </c>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>164,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>400011186892779</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8970</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>04/10/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>48,39</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>11,61</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>60,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>400011213160102</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9036</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>07/10/2025</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>64,52</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>15,48</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>80,00</t>
+          <t>8,00</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011213160102</t>
+          <t>400011185872109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,12 +513,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9036</t>
+          <t>8962</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -529,62 +529,70 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>64,52</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>15,48</t>
+          <t>2,10</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>80,00</t>
+          <t>10,85</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011219241352</t>
+          <t>400011185825004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>115333562</t>
+          <t>094439854</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>8961</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>22,61</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>28,04</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011185872109</t>
+          <t>400011185825004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8962</t>
+          <t>8961</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -529,24 +529,24 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>22,61</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2,10</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>28,04</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011185825004</t>
+          <t>400011185872109</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8961</t>
+          <t>8962</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -582,17 +582,103 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>22,61</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>2,10</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>28,04</t>
+          <t>10,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>400011219241352</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>400011219241353</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>8,00</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,53 +493,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011185825004</t>
+          <t>400011219241353</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>094439854</t>
+          <t>115333562</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8961</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22,61</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>5,43</t>
-        </is>
-      </c>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>28,04</t>
+          <t>8,00</t>
         </is>
       </c>
     </row>
@@ -593,92 +585,6 @@
       <c r="K3" t="inlineStr">
         <is>
           <t>10,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>400011219241352</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>094386010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>25/09/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>400011219241353</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>115333562</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>36671</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>8,00</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,6 +588,47 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>400011219241354</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,47 +588,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>400011219241354</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>094386010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>25/09/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,52 +493,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011219241353</t>
+          <t>400011185872109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>115333562</t>
+          <t>094439854</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>8962</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2,10</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>10,85</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011185872109</t>
+          <t>400011219241351</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -558,12 +566,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8962</t>
+          <t>9063</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>07/10/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -574,17 +582,58 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>132,88</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2,10</t>
+          <t>31,89</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>164,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>400011219241352</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>9,4</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,7 +599,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>400011219241352</t>
+          <t>400011219241353</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -634,6 +634,51 @@
       <c r="K4" t="inlineStr">
         <is>
           <t>9,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>400011219241354</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>8,00</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,198 +490,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>400011185872109</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8962</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>04/10/2025</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>8,75</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2,10</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>10,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>400011219241351</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9063</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>07/10/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>132,88</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>31,89</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>164,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>400011219241353</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>094386010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>25/09/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>400011219241354</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>115333562</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>36671</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,199 @@
           <t>Σύνολο</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Α/Α</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>400011219241352</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400011219241353</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>400011219241354</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>400011219241355</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,74 +498,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011219241352</t>
+          <t>400011185825004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>115333562</t>
+          <t>094439854</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>8961</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>22,61</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>28,04</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>8961</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011219241353</t>
+          <t>400011219241352</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>094386010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,25 +588,25 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>36671</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>400011219241354</t>
+          <t>400011219241353</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -640,7 +652,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>400011219241355</t>
+          <t>400011219241354</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -680,6 +692,56 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>400011219241355</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>36671</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,56 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>400011219241356</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,86 +498,74 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011185825004</t>
+          <t>400011219241352</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>094439854</t>
+          <t>115333562</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8961</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22,61</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>5,43</t>
-        </is>
-      </c>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>28,04</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8961</t>
+          <t>36671</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011219241352</t>
+          <t>400011219241353</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>115333562</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -588,25 +576,25 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>165</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>400011219241353</t>
+          <t>400011219241354</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -652,24 +640,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>400011219241354</t>
+          <t>400011219241355</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>094386010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -680,25 +672,25 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>36671</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>400011219241355</t>
+          <t>400011219241356</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -748,48 +740,106 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>400011219241356</t>
+          <t>400011185825004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>115333562</t>
+          <t>094439854</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>8961</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
+          <t>22,61</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>28,04</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>8961</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>400011219241357</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>8,00</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>8,00</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>36671</t>
         </is>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,23 +503,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>115333562</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -530,18 +526,18 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>165</t>
         </is>
       </c>
     </row>
@@ -594,254 +590,166 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>400011219241354</t>
+          <t>400011184084271</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>094386010</t>
+          <t>800916954</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>60031</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9,4</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>14,83</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>18,39</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>60031</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>400011219241355</t>
+          <t>400011184530011</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>115333562</t>
+          <t>094439854</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5Μ0ΤΔΑ</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>45,54</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>10,93</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>56,47</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>4626</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>400011219241356</t>
+          <t>400011184830173</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>115333562</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>60038</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Πιστωτικό Τιμολόγιο / Συσχετιζόμενο</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>-18,30</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-4,39</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>-22,69</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>36671</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>400011185825004</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8961</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>04/10/2025</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>22,61</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>5,43</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>28,04</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>8961</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>400011219241357</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>115333562</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>36671</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>36671</t>
+          <t>60038</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,19 +503,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>094386010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -526,18 +530,18 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>36671</t>
         </is>
       </c>
     </row>
@@ -590,166 +594,414 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>400011184084271</t>
+          <t>400011219241354</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>800916954</t>
+          <t>094386010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60031</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14,83</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>18,39</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>60031</t>
+          <t>165</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>400011184530011</t>
+          <t>400011219241355</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5Μ0ΤΔΑ</t>
-        </is>
-      </c>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4626</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>45,54</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>10,93</t>
-        </is>
-      </c>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>56,47</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4626</t>
+          <t>165</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>400011184830173</t>
+          <t>400011219241356</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>800916954</t>
+          <t>094386010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>60038</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Πιστωτικό Τιμολόγιο / Συσχετιζόμενο</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-18,30</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>-4,39</t>
-        </is>
-      </c>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-22,69</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>60038</t>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>400011219241357</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>400011219241358</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>400011219241359</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>400011219241360</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>400011219241361</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>400011219241362</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>165</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,122 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>400011185825004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8961</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>22,61</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>28,04</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>8961</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>400011185872109</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8962</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2,10</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10,85</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>8962</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,116 +498,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011185825004</t>
+          <t>400011219241352</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>094439854</t>
+          <t>115333562</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8961</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22,61</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>5,43</t>
-        </is>
-      </c>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>28,04</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8961</t>
+          <t>36671</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011185872109</t>
+          <t>400011219241353</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8962</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8,75</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2,10</t>
-        </is>
-      </c>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8962</t>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>400011219241354</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>165</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,64 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>400011185872109</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8962</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2,10</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>10,85</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8962</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,6 +695,64 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>400011186892779</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8970</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>48,39</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>11,61</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>8970</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,6 +753,60 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>400009073184486</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56096</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>129,99</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>29,66</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>159,65</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>56096</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +807,60 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>400011184830173</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60038</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Πιστωτικό Τιμολόγιο / Συσχετιζόμενο</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-18,30</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-4,39</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-22,69</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>60038</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>400009073184486</t>
+          <t>400011184830173</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -772,45 +772,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>56096</t>
+          <t>60038</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>Πιστωτικό Τιμολόγιο / Συσχετιζόμενο</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>129,99</t>
+          <t>-18,30</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>29,66</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>159,65</t>
+          <t>-22,69</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>56096</t>
+          <t>60038</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>400011184830173</t>
+          <t>400009073184486</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -826,38 +826,84 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60038</t>
+          <t>56096</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Πιστωτικό Τιμολόγιο / Συσχετιζόμενο</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-18,30</t>
+          <t>129,99</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>29,66</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-22,69</t>
+          <t>159,65</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>60038</t>
+          <t>56096</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>400011219241355</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>165</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -810,100 +810,100 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>400009073184486</t>
+          <t>400011219241355</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>800916954</t>
+          <t>094386010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>56096</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10/04/2025</t>
+          <t>25/09/2025</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>129,99</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>29,66</t>
-        </is>
-      </c>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>159,65</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>56096</t>
+          <t>165</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>400011219241355</t>
+          <t>400009073184486</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>094386010</t>
+          <t>800916954</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>56096</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>10/04/2025</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9,4</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>129,99</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>29,66</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>159,65</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>56096</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,6 +907,64 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>400011213160102</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9036</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>64,52</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15,48</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>9036</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,6 +965,110 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>400011219241356</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>400011219241357</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,6 +1069,326 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>400011219241358</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>400011219241359</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>800717142</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ΠΕΡΙ ΓΗΣ ΙΚΕ</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>142040</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12/09/2025</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>19,44</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>19,44</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>142040</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>400011219241360</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>400011219241361</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>094386010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>25/09/2025</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>400011219241362</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>094475066</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ΜΥΡΤΕΑ 106</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2221034</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2221034</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>400011219241363</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>999644611</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ΕΚΟ ΗΛΙΟΥΠΟΛΗΣ (R020)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1412560</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1412560</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -785,10 +785,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>094386010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>ΑΛΠ</t>
@@ -796,12 +800,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>25/09/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -812,18 +816,18 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>36671</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -831,6 +831,56 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>400011576793993</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>998345385</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>130739</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2,60</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2,60</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>130739</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,386 +498,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011185872109</t>
+          <t>400011219241352</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>094439854</t>
+          <t>115333562</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8Μ0ΤΔΑ</t>
+          <t>ΑΛΠ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8962</t>
+          <t>36671</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8,75</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2,10</t>
-        </is>
-      </c>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8962</t>
+          <t>36671</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011186892779</t>
+          <t>400011576793993</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
+          <t>998345385</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8Μ0ΤΔΑ</t>
+          <t>ΑΛΠ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8970</t>
+          <t>130739</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>31/10/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Τιμολόγιο Πώλησης</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>48,39</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>11,61</t>
-        </is>
-      </c>
+          <t>2,60</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>60,00</t>
+          <t>2,60</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8970</t>
+          <t>130739</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>400011184830173</t>
+          <t>400011576793994</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>800916954</t>
+          <t>094439854</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TΔA</t>
+          <t>ΑΛΠ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60038</t>
+          <t>8350</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>04/10/2025</t>
+          <t>11/10/2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Πιστωτικό Τιμολόγιο / Συσχετιζόμενο</t>
+          <t>ΑΠΟΔΕΙΞΗ</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-18,30</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-4,39</t>
-        </is>
-      </c>
+          <t>3,50</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-22,69</t>
+          <t>3,50</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>60038</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>400009073184486</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>800916954</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TΔA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>56096</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10/04/2025</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>129,99</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>29,66</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>159,65</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>56096</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>400011213160102</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>094439854</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8Μ0ΤΔΑ</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9036</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>07/10/2025</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Τιμολόγιο Πώλησης</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>64,52</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>15,48</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>80,00</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>9036</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>400011219241352</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>115333562</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ΑΛΠ</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36671</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>36671</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>400011576793993</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>998345385</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ΑΛΠ</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>130739</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>31/10/2025</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2,60</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2,60</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>130739</t>
+          <t>8350</t>
         </is>
       </c>
     </row>

--- a/data/excel/802576637_2025_invoices.xlsx
+++ b/data/excel/802576637_2025_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,152 +498,434 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400011219241352</t>
+          <t>400011185872109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>115333562</t>
+          <t>094439854</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ΑΛΠ</t>
+          <t>8Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>8962</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2,10</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>8962</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>400011576793993</t>
+          <t>400011186892779</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>998345385</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ΑΛΠ</t>
+          <t>8Μ0ΤΔΑ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>130739</t>
+          <t>8970</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>31/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Τιμολόγιο Πώλησης</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2,60</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>48,39</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>11,61</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2,60</t>
+          <t>60,00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>130739</t>
+          <t>8970</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>400011576793994</t>
+          <t>400011184830173</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>094439854</t>
+          <t>800916954</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ΑΛΠ</t>
+          <t>TΔA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8350</t>
+          <t>60038</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11/10/2025</t>
+          <t>04/10/2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ</t>
+          <t>Πιστωτικό Τιμολόγιο / Συσχετιζόμενο</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
+          <t>-18,30</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-4,39</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-22,69</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>60038</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>400009073184486</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>800916954</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TΔA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56096</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>129,99</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>29,66</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>159,65</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>56096</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>400011213160102</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8Μ0ΤΔΑ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9036</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>07/10/2025</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Τιμολόγιο Πώλησης</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>64,52</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>15,48</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>9036</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>400011219241352</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>115333562</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>400011576793993</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>998345385</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>130739</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2,60</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2,60</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>130739</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>400011576793994</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>094439854</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ΑΛΠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8350</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>3,50</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>3,50</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>8350</t>
         </is>
